--- a/sensorCSV/SAG2_sensor_data_with_decimal_filtered.xlsx
+++ b/sensorCSV/SAG2_sensor_data_with_decimal_filtered.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2815,6 +2815,339 @@
         <v>400</v>
       </c>
       <c r="I64" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45721.73015877315</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>400</v>
+      </c>
+      <c r="G65" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H65" t="n">
+        <v>400</v>
+      </c>
+      <c r="I65" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45721.73018203703</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>400</v>
+      </c>
+      <c r="G66" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H66" t="n">
+        <v>400</v>
+      </c>
+      <c r="I66" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45721.7302053125</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>400</v>
+      </c>
+      <c r="G67" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H67" t="n">
+        <v>400</v>
+      </c>
+      <c r="I67" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45722.23047579861</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>400</v>
+      </c>
+      <c r="G68" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H68" t="n">
+        <v>400</v>
+      </c>
+      <c r="I68" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45722.23049802084</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>400</v>
+      </c>
+      <c r="G69" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H69" t="n">
+        <v>400</v>
+      </c>
+      <c r="I69" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45722.23052140047</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>400</v>
+      </c>
+      <c r="G70" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H70" t="n">
+        <v>400</v>
+      </c>
+      <c r="I70" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45723.19127907408</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>400</v>
+      </c>
+      <c r="G71" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H71" t="n">
+        <v>400</v>
+      </c>
+      <c r="I71" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45723.19130241898</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>400</v>
+      </c>
+      <c r="G72" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H72" t="n">
+        <v>400</v>
+      </c>
+      <c r="I72" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45723.19132570602</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>400</v>
+      </c>
+      <c r="G73" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H73" t="n">
+        <v>400</v>
+      </c>
+      <c r="I73" t="n">
         <v>20</v>
       </c>
     </row>
@@ -2829,7 +3162,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5212,6 +5545,450 @@
         <v>400</v>
       </c>
       <c r="I64" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45721.72839921296</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>400</v>
+      </c>
+      <c r="G65" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H65" t="n">
+        <v>400</v>
+      </c>
+      <c r="I65" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45721.7284225</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>400</v>
+      </c>
+      <c r="G66" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H66" t="n">
+        <v>400</v>
+      </c>
+      <c r="I66" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45721.72844564815</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>400</v>
+      </c>
+      <c r="G67" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H67" t="n">
+        <v>400</v>
+      </c>
+      <c r="I67" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45722.22854285879</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>400</v>
+      </c>
+      <c r="G68" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H68" t="n">
+        <v>400</v>
+      </c>
+      <c r="I68" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45722.22856443287</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>400</v>
+      </c>
+      <c r="G69" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H69" t="n">
+        <v>400</v>
+      </c>
+      <c r="I69" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45722.22858758102</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>400</v>
+      </c>
+      <c r="G70" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H70" t="n">
+        <v>400</v>
+      </c>
+      <c r="I70" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45722.72868413194</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>400</v>
+      </c>
+      <c r="G71" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H71" t="n">
+        <v>400</v>
+      </c>
+      <c r="I71" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45722.72870657407</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>400</v>
+      </c>
+      <c r="G72" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H72" t="n">
+        <v>400</v>
+      </c>
+      <c r="I72" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45722.72872986111</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>400</v>
+      </c>
+      <c r="G73" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H73" t="n">
+        <v>400</v>
+      </c>
+      <c r="I73" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45723.22882704861</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>400</v>
+      </c>
+      <c r="G74" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H74" t="n">
+        <v>400</v>
+      </c>
+      <c r="I74" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45723.22884876157</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>400</v>
+      </c>
+      <c r="G75" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H75" t="n">
+        <v>400</v>
+      </c>
+      <c r="I75" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45723.22887202547</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>400</v>
+      </c>
+      <c r="G76" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H76" t="n">
+        <v>400</v>
+      </c>
+      <c r="I76" t="n">
         <v>25</v>
       </c>
     </row>
@@ -5226,7 +6003,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7720,6 +8497,339 @@
         <v>400</v>
       </c>
       <c r="I67" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45721.72979140046</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>0x13</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>400</v>
+      </c>
+      <c r="G68" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H68" t="n">
+        <v>400</v>
+      </c>
+      <c r="I68" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45721.72981465278</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>0x13</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>400</v>
+      </c>
+      <c r="G69" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H69" t="n">
+        <v>400</v>
+      </c>
+      <c r="I69" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45721.72983799769</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>0x13</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>400</v>
+      </c>
+      <c r="G70" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H70" t="n">
+        <v>400</v>
+      </c>
+      <c r="I70" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45722.23010865741</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>0x13</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>400</v>
+      </c>
+      <c r="G71" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H71" t="n">
+        <v>400</v>
+      </c>
+      <c r="I71" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45722.23013063658</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>0x13</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>400</v>
+      </c>
+      <c r="G72" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H72" t="n">
+        <v>400</v>
+      </c>
+      <c r="I72" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45722.23015388889</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>0x13</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>400</v>
+      </c>
+      <c r="G73" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H73" t="n">
+        <v>400</v>
+      </c>
+      <c r="I73" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45723.19126707176</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>0x13</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>400</v>
+      </c>
+      <c r="G74" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H74" t="n">
+        <v>400</v>
+      </c>
+      <c r="I74" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45723.19129023148</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>0x13</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>400</v>
+      </c>
+      <c r="G75" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H75" t="n">
+        <v>400</v>
+      </c>
+      <c r="I75" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45723.19131362269</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>0x13</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>400</v>
+      </c>
+      <c r="G76" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H76" t="n">
+        <v>400</v>
+      </c>
+      <c r="I76" t="n">
         <v>19</v>
       </c>
     </row>
@@ -7734,7 +8844,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10120,6 +11230,339 @@
         <v>9</v>
       </c>
     </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45721.73010056713</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>0x9</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>400</v>
+      </c>
+      <c r="G65" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H65" t="n">
+        <v>400</v>
+      </c>
+      <c r="I65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45721.73012371528</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>0x9</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>400</v>
+      </c>
+      <c r="G66" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H66" t="n">
+        <v>400</v>
+      </c>
+      <c r="I66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45721.73014709491</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>0x9</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>400</v>
+      </c>
+      <c r="G67" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H67" t="n">
+        <v>400</v>
+      </c>
+      <c r="I67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45722.23024466435</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>0x9</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>400</v>
+      </c>
+      <c r="G68" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H68" t="n">
+        <v>400</v>
+      </c>
+      <c r="I68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45722.23026591435</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>0x9</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>400</v>
+      </c>
+      <c r="G69" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H69" t="n">
+        <v>400</v>
+      </c>
+      <c r="I69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45722.23028918981</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>0x9</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>400</v>
+      </c>
+      <c r="G70" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H70" t="n">
+        <v>400</v>
+      </c>
+      <c r="I70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45723.19114016204</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>0x9</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>400</v>
+      </c>
+      <c r="G71" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H71" t="n">
+        <v>400</v>
+      </c>
+      <c r="I71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45723.19116321759</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>0x9</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>400</v>
+      </c>
+      <c r="G72" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H72" t="n">
+        <v>400</v>
+      </c>
+      <c r="I72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45723.19118659722</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>0x9</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>400</v>
+      </c>
+      <c r="G73" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H73" t="n">
+        <v>400</v>
+      </c>
+      <c r="I73" t="n">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/sensorCSV/SAG2_sensor_data_with_decimal_filtered.xlsx
+++ b/sensorCSV/SAG2_sensor_data_with_decimal_filtered.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1372,6 +1372,117 @@
         <v>400</v>
       </c>
       <c r="I25" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45729.08020857639</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>400</v>
+      </c>
+      <c r="G26" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H26" t="n">
+        <v>400</v>
+      </c>
+      <c r="I26" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45729.08023003472</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>400</v>
+      </c>
+      <c r="G27" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H27" t="n">
+        <v>400</v>
+      </c>
+      <c r="I27" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45729.08025329861</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>400</v>
+      </c>
+      <c r="G28" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H28" t="n">
+        <v>400</v>
+      </c>
+      <c r="I28" t="n">
         <v>20</v>
       </c>
     </row>
@@ -1386,7 +1497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3547,6 +3658,339 @@
         <v>400</v>
       </c>
       <c r="I58" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45729.06475774306</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>400</v>
+      </c>
+      <c r="G59" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H59" t="n">
+        <v>400</v>
+      </c>
+      <c r="I59" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45729.06477990741</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>400</v>
+      </c>
+      <c r="G60" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H60" t="n">
+        <v>400</v>
+      </c>
+      <c r="I60" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45729.06480305555</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>400</v>
+      </c>
+      <c r="G61" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H61" t="n">
+        <v>400</v>
+      </c>
+      <c r="I61" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45729.14823328704</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>400</v>
+      </c>
+      <c r="G62" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H62" t="n">
+        <v>400</v>
+      </c>
+      <c r="I62" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45729.14825528935</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>400</v>
+      </c>
+      <c r="G63" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H63" t="n">
+        <v>400</v>
+      </c>
+      <c r="I63" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45729.14827864584</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>400</v>
+      </c>
+      <c r="G64" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H64" t="n">
+        <v>400</v>
+      </c>
+      <c r="I64" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45729.23170871528</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>400</v>
+      </c>
+      <c r="G65" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H65" t="n">
+        <v>400</v>
+      </c>
+      <c r="I65" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45729.23173081018</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>400</v>
+      </c>
+      <c r="G66" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H66" t="n">
+        <v>400</v>
+      </c>
+      <c r="I66" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45729.23175395833</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>400</v>
+      </c>
+      <c r="G67" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H67" t="n">
+        <v>400</v>
+      </c>
+      <c r="I67" t="n">
         <v>25</v>
       </c>
     </row>
@@ -3561,7 +4005,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4501,6 +4945,117 @@
         <v>400</v>
       </c>
       <c r="I25" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45729.08020857639</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>400</v>
+      </c>
+      <c r="G26" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H26" t="n">
+        <v>400</v>
+      </c>
+      <c r="I26" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45729.08023003472</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>400</v>
+      </c>
+      <c r="G27" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H27" t="n">
+        <v>400</v>
+      </c>
+      <c r="I27" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45729.08025329861</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>400</v>
+      </c>
+      <c r="G28" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H28" t="n">
+        <v>400</v>
+      </c>
+      <c r="I28" t="n">
         <v>20</v>
       </c>
     </row>
@@ -4515,7 +5070,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6679,6 +7234,339 @@
         <v>25</v>
       </c>
     </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45729.06475774306</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>400</v>
+      </c>
+      <c r="G59" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H59" t="n">
+        <v>400</v>
+      </c>
+      <c r="I59" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45729.06477990741</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>400</v>
+      </c>
+      <c r="G60" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H60" t="n">
+        <v>400</v>
+      </c>
+      <c r="I60" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45729.06480305555</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>400</v>
+      </c>
+      <c r="G61" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H61" t="n">
+        <v>400</v>
+      </c>
+      <c r="I61" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45729.14823328704</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>400</v>
+      </c>
+      <c r="G62" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H62" t="n">
+        <v>400</v>
+      </c>
+      <c r="I62" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45729.14825528935</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>400</v>
+      </c>
+      <c r="G63" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H63" t="n">
+        <v>400</v>
+      </c>
+      <c r="I63" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45729.14827864584</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>400</v>
+      </c>
+      <c r="G64" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H64" t="n">
+        <v>400</v>
+      </c>
+      <c r="I64" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45729.23170871528</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>400</v>
+      </c>
+      <c r="G65" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H65" t="n">
+        <v>400</v>
+      </c>
+      <c r="I65" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45729.23173081018</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>400</v>
+      </c>
+      <c r="G66" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H66" t="n">
+        <v>400</v>
+      </c>
+      <c r="I66" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45729.23175395833</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>400</v>
+      </c>
+      <c r="G67" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H67" t="n">
+        <v>400</v>
+      </c>
+      <c r="I67" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/sensorCSV/SAG2_sensor_data_with_decimal_filtered.xlsx
+++ b/sensorCSV/SAG2_sensor_data_with_decimal_filtered.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1483,6 +1483,117 @@
         <v>400</v>
       </c>
       <c r="I28" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45729.58035023148</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>400</v>
+      </c>
+      <c r="G29" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H29" t="n">
+        <v>400</v>
+      </c>
+      <c r="I29" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45729.5803721875</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>400</v>
+      </c>
+      <c r="G30" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H30" t="n">
+        <v>400</v>
+      </c>
+      <c r="I30" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45729.58039546297</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>400</v>
+      </c>
+      <c r="G31" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H31" t="n">
+        <v>400</v>
+      </c>
+      <c r="I31" t="n">
         <v>20</v>
       </c>
     </row>
@@ -1497,7 +1608,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3991,6 +4102,672 @@
         <v>400</v>
       </c>
       <c r="I67" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45729.31518523148</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>400</v>
+      </c>
+      <c r="G68" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H68" t="n">
+        <v>400</v>
+      </c>
+      <c r="I68" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45729.31520722222</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>400</v>
+      </c>
+      <c r="G69" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H69" t="n">
+        <v>400</v>
+      </c>
+      <c r="I69" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45729.3152303588</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>400</v>
+      </c>
+      <c r="G70" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H70" t="n">
+        <v>400</v>
+      </c>
+      <c r="I70" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45729.39866047454</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>400</v>
+      </c>
+      <c r="G71" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H71" t="n">
+        <v>400</v>
+      </c>
+      <c r="I71" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45729.39868246527</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>400</v>
+      </c>
+      <c r="G72" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H72" t="n">
+        <v>400</v>
+      </c>
+      <c r="I72" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45729.39870561343</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>400</v>
+      </c>
+      <c r="G73" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H73" t="n">
+        <v>400</v>
+      </c>
+      <c r="I73" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45729.48213673611</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>400</v>
+      </c>
+      <c r="G74" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H74" t="n">
+        <v>400</v>
+      </c>
+      <c r="I74" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45729.48215891204</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>400</v>
+      </c>
+      <c r="G75" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H75" t="n">
+        <v>400</v>
+      </c>
+      <c r="I75" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45729.482181875</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>400</v>
+      </c>
+      <c r="G76" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H76" t="n">
+        <v>400</v>
+      </c>
+      <c r="I76" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45729.56561206019</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>400</v>
+      </c>
+      <c r="G77" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H77" t="n">
+        <v>400</v>
+      </c>
+      <c r="I77" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45729.56563403935</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>400</v>
+      </c>
+      <c r="G78" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H78" t="n">
+        <v>400</v>
+      </c>
+      <c r="I78" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45729.56565724537</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>400</v>
+      </c>
+      <c r="G79" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H79" t="n">
+        <v>400</v>
+      </c>
+      <c r="I79" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45729.64909206019</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>400</v>
+      </c>
+      <c r="G80" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H80" t="n">
+        <v>400</v>
+      </c>
+      <c r="I80" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>45729.64911011574</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>400</v>
+      </c>
+      <c r="G81" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H81" t="n">
+        <v>400</v>
+      </c>
+      <c r="I81" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>45729.64913337963</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>400</v>
+      </c>
+      <c r="G82" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H82" t="n">
+        <v>400</v>
+      </c>
+      <c r="I82" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>45729.73256368055</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>400</v>
+      </c>
+      <c r="G83" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H83" t="n">
+        <v>400</v>
+      </c>
+      <c r="I83" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>45729.73258552083</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>400</v>
+      </c>
+      <c r="G84" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H84" t="n">
+        <v>400</v>
+      </c>
+      <c r="I84" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>45729.73260887731</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>400</v>
+      </c>
+      <c r="G85" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H85" t="n">
+        <v>400</v>
+      </c>
+      <c r="I85" t="n">
         <v>25</v>
       </c>
     </row>
@@ -4005,7 +4782,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5056,6 +5833,117 @@
         <v>400</v>
       </c>
       <c r="I28" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45729.58035023148</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>400</v>
+      </c>
+      <c r="G29" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H29" t="n">
+        <v>400</v>
+      </c>
+      <c r="I29" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45729.5803721875</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>400</v>
+      </c>
+      <c r="G30" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H30" t="n">
+        <v>400</v>
+      </c>
+      <c r="I30" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45729.58039546297</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>400</v>
+      </c>
+      <c r="G31" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H31" t="n">
+        <v>400</v>
+      </c>
+      <c r="I31" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5070,7 +5958,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7567,6 +8455,672 @@
         <v>25</v>
       </c>
     </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45729.31518523148</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>400</v>
+      </c>
+      <c r="G68" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H68" t="n">
+        <v>400</v>
+      </c>
+      <c r="I68" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45729.31520722222</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>400</v>
+      </c>
+      <c r="G69" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H69" t="n">
+        <v>400</v>
+      </c>
+      <c r="I69" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45729.3152303588</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>400</v>
+      </c>
+      <c r="G70" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H70" t="n">
+        <v>400</v>
+      </c>
+      <c r="I70" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45729.39866047454</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>400</v>
+      </c>
+      <c r="G71" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H71" t="n">
+        <v>400</v>
+      </c>
+      <c r="I71" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45729.39868246527</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>400</v>
+      </c>
+      <c r="G72" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H72" t="n">
+        <v>400</v>
+      </c>
+      <c r="I72" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45729.39870561343</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>400</v>
+      </c>
+      <c r="G73" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H73" t="n">
+        <v>400</v>
+      </c>
+      <c r="I73" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45729.48213673611</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>400</v>
+      </c>
+      <c r="G74" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H74" t="n">
+        <v>400</v>
+      </c>
+      <c r="I74" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45729.48215891204</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>400</v>
+      </c>
+      <c r="G75" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H75" t="n">
+        <v>400</v>
+      </c>
+      <c r="I75" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45729.482181875</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>400</v>
+      </c>
+      <c r="G76" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H76" t="n">
+        <v>400</v>
+      </c>
+      <c r="I76" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45729.56561206019</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>400</v>
+      </c>
+      <c r="G77" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H77" t="n">
+        <v>400</v>
+      </c>
+      <c r="I77" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45729.56563403935</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>400</v>
+      </c>
+      <c r="G78" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H78" t="n">
+        <v>400</v>
+      </c>
+      <c r="I78" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45729.56565724537</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>400</v>
+      </c>
+      <c r="G79" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H79" t="n">
+        <v>400</v>
+      </c>
+      <c r="I79" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45729.64909206019</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>400</v>
+      </c>
+      <c r="G80" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H80" t="n">
+        <v>400</v>
+      </c>
+      <c r="I80" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>45729.64911011574</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>400</v>
+      </c>
+      <c r="G81" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H81" t="n">
+        <v>400</v>
+      </c>
+      <c r="I81" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>45729.64913337963</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>400</v>
+      </c>
+      <c r="G82" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H82" t="n">
+        <v>400</v>
+      </c>
+      <c r="I82" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>45729.73256368055</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>400</v>
+      </c>
+      <c r="G83" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H83" t="n">
+        <v>400</v>
+      </c>
+      <c r="I83" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>45729.73258552083</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>400</v>
+      </c>
+      <c r="G84" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H84" t="n">
+        <v>400</v>
+      </c>
+      <c r="I84" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>45729.73260887731</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>400</v>
+      </c>
+      <c r="G85" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H85" t="n">
+        <v>400</v>
+      </c>
+      <c r="I85" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/sensorCSV/SAG2_sensor_data_with_decimal_filtered.xlsx
+++ b/sensorCSV/SAG2_sensor_data_with_decimal_filtered.xlsx
@@ -1608,7 +1608,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I85"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4768,6 +4768,339 @@
         <v>400</v>
       </c>
       <c r="I85" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>45729.8160389699</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>400</v>
+      </c>
+      <c r="G86" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H86" t="n">
+        <v>400</v>
+      </c>
+      <c r="I86" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>45729.81606084491</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>400</v>
+      </c>
+      <c r="G87" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H87" t="n">
+        <v>400</v>
+      </c>
+      <c r="I87" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>45729.81608430555</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>400</v>
+      </c>
+      <c r="G88" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H88" t="n">
+        <v>400</v>
+      </c>
+      <c r="I88" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>45729.89951609954</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>400</v>
+      </c>
+      <c r="G89" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H89" t="n">
+        <v>400</v>
+      </c>
+      <c r="I89" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>45729.89953711806</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>400</v>
+      </c>
+      <c r="G90" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H90" t="n">
+        <v>400</v>
+      </c>
+      <c r="I90" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>45729.89956038194</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>400</v>
+      </c>
+      <c r="G91" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H91" t="n">
+        <v>400</v>
+      </c>
+      <c r="I91" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>45729.98299244213</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>400</v>
+      </c>
+      <c r="G92" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H92" t="n">
+        <v>400</v>
+      </c>
+      <c r="I92" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>45729.98301351852</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>400</v>
+      </c>
+      <c r="G93" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H93" t="n">
+        <v>400</v>
+      </c>
+      <c r="I93" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>45729.98303674768</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>400</v>
+      </c>
+      <c r="G94" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H94" t="n">
+        <v>400</v>
+      </c>
+      <c r="I94" t="n">
         <v>25</v>
       </c>
     </row>
@@ -5958,7 +6291,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I85"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9121,6 +9454,339 @@
         <v>25</v>
       </c>
     </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>45729.8160389699</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>400</v>
+      </c>
+      <c r="G86" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H86" t="n">
+        <v>400</v>
+      </c>
+      <c r="I86" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>45729.81606084491</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>400</v>
+      </c>
+      <c r="G87" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H87" t="n">
+        <v>400</v>
+      </c>
+      <c r="I87" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>45729.81608430555</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>400</v>
+      </c>
+      <c r="G88" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H88" t="n">
+        <v>400</v>
+      </c>
+      <c r="I88" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>45729.89951609954</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>400</v>
+      </c>
+      <c r="G89" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H89" t="n">
+        <v>400</v>
+      </c>
+      <c r="I89" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>45729.89953711806</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>400</v>
+      </c>
+      <c r="G90" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H90" t="n">
+        <v>400</v>
+      </c>
+      <c r="I90" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>45729.89956038194</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>400</v>
+      </c>
+      <c r="G91" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H91" t="n">
+        <v>400</v>
+      </c>
+      <c r="I91" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>45729.98299244213</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>400</v>
+      </c>
+      <c r="G92" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H92" t="n">
+        <v>400</v>
+      </c>
+      <c r="I92" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>45729.98301351852</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>400</v>
+      </c>
+      <c r="G93" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H93" t="n">
+        <v>400</v>
+      </c>
+      <c r="I93" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>45729.98303674768</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>400</v>
+      </c>
+      <c r="G94" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H94" t="n">
+        <v>400</v>
+      </c>
+      <c r="I94" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
